--- a/Data.xlsx
+++ b/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
   <si>
     <t>Статично Голямо</t>
   </si>
@@ -86,15 +86,15 @@
     <t>1.80942</t>
   </si>
   <si>
-    <t>Размер 500</t>
-  </si>
-  <si>
     <t>1.62707</t>
   </si>
   <si>
     <t>1.77151</t>
   </si>
   <si>
+    <t>Размер 400</t>
+  </si>
+  <si>
     <t>7.19333</t>
   </si>
   <si>
@@ -159,6 +159,204 @@
   </si>
   <si>
     <t>13.9954</t>
+  </si>
+  <si>
+    <t>0.878251</t>
+  </si>
+  <si>
+    <t>0.656026</t>
+  </si>
+  <si>
+    <t>0.899847</t>
+  </si>
+  <si>
+    <t>0.445</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>0.926369</t>
+  </si>
+  <si>
+    <t>0.911227</t>
+  </si>
+  <si>
+    <t>0.456002</t>
+  </si>
+  <si>
+    <t>0.590987</t>
+  </si>
+  <si>
+    <t>0.905517</t>
+  </si>
+  <si>
+    <t>0.874977</t>
+  </si>
+  <si>
+    <t>0.921959</t>
+  </si>
+  <si>
+    <t>3.77618</t>
+  </si>
+  <si>
+    <t>1.94811</t>
+  </si>
+  <si>
+    <t>2.04779</t>
+  </si>
+  <si>
+    <t>3.76063</t>
+  </si>
+  <si>
+    <t>3.80519</t>
+  </si>
+  <si>
+    <t>1.99463</t>
+  </si>
+  <si>
+    <t>2.83072</t>
+  </si>
+  <si>
+    <t>3.89261</t>
+  </si>
+  <si>
+    <t>3.96435</t>
+  </si>
+  <si>
+    <t>3.86976</t>
+  </si>
+  <si>
+    <t>7.12534</t>
+  </si>
+  <si>
+    <t>7.17719</t>
+  </si>
+  <si>
+    <t>3.97164</t>
+  </si>
+  <si>
+    <t>3.78769</t>
+  </si>
+  <si>
+    <t>3.81953</t>
+  </si>
+  <si>
+    <t>5.42743</t>
+  </si>
+  <si>
+    <t>7.62944</t>
+  </si>
+  <si>
+    <t>7.22222</t>
+  </si>
+  <si>
+    <t>7.95817</t>
+  </si>
+  <si>
+    <t>7.72972</t>
+  </si>
+  <si>
+    <t>4.20329</t>
+  </si>
+  <si>
+    <t>2.97492</t>
+  </si>
+  <si>
+    <t>5.94342</t>
+  </si>
+  <si>
+    <t>7.06768</t>
+  </si>
+  <si>
+    <t>0.86551</t>
+  </si>
+  <si>
+    <t>0.858035</t>
+  </si>
+  <si>
+    <t>0.864376</t>
+  </si>
+  <si>
+    <t>0.874046</t>
+  </si>
+  <si>
+    <t>0.988001</t>
+  </si>
+  <si>
+    <t>0.869081</t>
+  </si>
+  <si>
+    <t>0.610279</t>
+  </si>
+  <si>
+    <t>0.477001</t>
+  </si>
+  <si>
+    <t>0.458002</t>
+  </si>
+  <si>
+    <t>0.447997</t>
+  </si>
+  <si>
+    <t>3.66977</t>
+  </si>
+  <si>
+    <t>3.80501</t>
+  </si>
+  <si>
+    <t>3.72144</t>
+  </si>
+  <si>
+    <t>3.94438</t>
+  </si>
+  <si>
+    <t>3.93271</t>
+  </si>
+  <si>
+    <t>2.00503</t>
+  </si>
+  <si>
+    <t>2.008</t>
+  </si>
+  <si>
+    <t>2.045</t>
+  </si>
+  <si>
+    <t>4.04199</t>
+  </si>
+  <si>
+    <t>3.27688</t>
+  </si>
+  <si>
+    <t>7.31071</t>
+  </si>
+  <si>
+    <t>7.22939</t>
+  </si>
+  <si>
+    <t>7.25006</t>
+  </si>
+  <si>
+    <t>7.64663</t>
+  </si>
+  <si>
+    <t>7.91113</t>
+  </si>
+  <si>
+    <t>3.87211</t>
+  </si>
+  <si>
+    <t>3.83063</t>
+  </si>
+  <si>
+    <t>3.83398</t>
+  </si>
+  <si>
+    <t>5.60344</t>
+  </si>
+  <si>
+    <t>7.71831</t>
   </si>
 </sst>
 </file>
@@ -175,12 +373,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -210,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -240,6 +444,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,13 +744,13 @@
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -551,34 +761,19 @@
         <v>2</v>
       </c>
       <c r="F1" s="2">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2">
         <v>4</v>
       </c>
-      <c r="H1" s="2">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2">
-        <v>8</v>
-      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="6"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -591,24 +786,23 @@
       <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
@@ -617,24 +811,23 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
@@ -643,24 +836,23 @@
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
@@ -669,50 +861,48 @@
       <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
@@ -723,24 +913,23 @@
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
@@ -749,24 +938,23 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
@@ -775,24 +963,23 @@
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
@@ -801,50 +988,48 @@
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="1"/>
+      <c r="E11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -855,24 +1040,23 @@
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="1"/>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -885,24 +1069,23 @@
       <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
@@ -911,24 +1094,23 @@
       <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
@@ -937,24 +1119,23 @@
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="1"/>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
@@ -963,50 +1144,48 @@
       <c r="D16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="1"/>
+      <c r="E16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>2</v>
@@ -1017,24 +1196,23 @@
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="2" t="s">
@@ -1043,24 +1221,23 @@
       <c r="D19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="1"/>
+      <c r="E19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2" t="s">
@@ -1069,24 +1246,23 @@
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="1"/>
+      <c r="E20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2" t="s">
@@ -1095,50 +1271,48 @@
       <c r="D21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="1"/>
+      <c r="E21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="1"/>
+      <c r="E22" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>0</v>
@@ -1149,24 +1323,23 @@
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="1"/>
+      <c r="E23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -1179,24 +1352,23 @@
       <c r="D24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="1"/>
+      <c r="E24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="2" t="s">
@@ -1205,24 +1377,23 @@
       <c r="D25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="1"/>
+      <c r="E25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="2" t="s">
@@ -1231,24 +1402,23 @@
       <c r="D26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="1"/>
+      <c r="E26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="2" t="s">
@@ -1257,50 +1427,48 @@
       <c r="D27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="1"/>
+      <c r="E27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="1"/>
+      <c r="E28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>2</v>
@@ -1311,24 +1479,23 @@
       <c r="D29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="1"/>
+      <c r="E29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
@@ -1337,24 +1504,23 @@
       <c r="D30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="1"/>
+      <c r="E30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="2" t="s">
@@ -1363,24 +1529,23 @@
       <c r="D31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="1"/>
+      <c r="E31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="2" t="s">
@@ -1389,50 +1554,48 @@
       <c r="D32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="1"/>
+      <c r="E32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="1"/>
+      <c r="E33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
         <v>0</v>
@@ -1443,63 +1606,48 @@
       <c r="D34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="1"/>
+      <c r="E34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="6"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="1"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="6"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
-  <si>
-    <t>Статично Голямо</t>
-  </si>
-  <si>
-    <t>Динамично Малко Мастър</t>
-  </si>
-  <si>
-    <t>Динамично Малко Променлива</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="122">
   <si>
     <t>-</t>
   </si>
@@ -357,6 +348,48 @@
   </si>
   <si>
     <t>7.71831</t>
+  </si>
+  <si>
+    <t>Динамично Централизирано</t>
+  </si>
+  <si>
+    <t>Разпределено Динамично</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статично </t>
+  </si>
+  <si>
+    <t>Статично</t>
+  </si>
+  <si>
+    <t>Статично Циклично</t>
+  </si>
+  <si>
+    <t>1.66432</t>
+  </si>
+  <si>
+    <t>0.78253</t>
+  </si>
+  <si>
+    <t>0.65402</t>
+  </si>
+  <si>
+    <t>6.66432</t>
+  </si>
+  <si>
+    <t>3.78253</t>
+  </si>
+  <si>
+    <t>2.65402</t>
+  </si>
+  <si>
+    <t>13.66432</t>
+  </si>
+  <si>
+    <t>7.78253</t>
+  </si>
+  <si>
+    <t>5.65402</t>
   </si>
 </sst>
 </file>
@@ -373,18 +406,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -414,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -447,9 +474,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F37" sqref="A1:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +767,7 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
@@ -775,22 +799,22 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="10"/>
@@ -806,16 +830,16 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="9"/>
@@ -831,16 +855,16 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -856,16 +880,16 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -881,16 +905,16 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
@@ -905,19 +929,19 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="6"/>
@@ -933,16 +957,16 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="6"/>
@@ -958,16 +982,16 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="6"/>
@@ -983,16 +1007,16 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="6"/>
@@ -1008,16 +1032,16 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="6"/>
@@ -1032,19 +1056,19 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>15</v>
+      <c r="D12" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="6"/>
@@ -1057,23 +1081,21 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="6"/>
@@ -1086,19 +1108,23 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="6"/>
@@ -1114,16 +1140,16 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="6"/>
@@ -1139,16 +1165,16 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="6"/>
@@ -1164,16 +1190,16 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>65</v>
+        <v>24</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="6"/>
@@ -1187,20 +1213,18 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="6"/>
@@ -1214,18 +1238,20 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="6"/>
@@ -1241,16 +1267,16 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="6"/>
@@ -1266,16 +1292,16 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="6"/>
@@ -1291,16 +1317,16 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>95</v>
+        <v>29</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="6"/>
@@ -1314,20 +1340,18 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>30</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="6"/>
@@ -1340,23 +1364,19 @@
       <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>35</v>
+      <c r="A24" s="4"/>
+      <c r="B24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="6"/>
@@ -1370,18 +1390,20 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="B25" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="6"/>
@@ -1394,19 +1416,23 @@
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="6"/>
@@ -1422,16 +1448,16 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="6"/>
@@ -1447,16 +1473,16 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="6"/>
@@ -1470,20 +1496,18 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="6"/>
@@ -1499,16 +1523,16 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>107</v>
+        <v>73</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="6"/>
@@ -1522,18 +1546,20 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="6"/>
@@ -1549,16 +1575,16 @@
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="6"/>
@@ -1574,16 +1600,16 @@
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="6"/>
@@ -1597,20 +1623,18 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B34" s="4"/>
       <c r="C34" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="6"/>
@@ -1623,11 +1647,20 @@
       <c r="O34" s="6"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="1"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -1639,26 +1672,94 @@
       <c r="O35" s="6"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="1"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="G36" s="1"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F37" s="3"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B31:B35"/>
     <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A2:A13"/>
     <mergeCell ref="B2:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
